--- a/tests/data/test_data_import/perusmaksurekisteri.xlsx
+++ b/tests/data/test_data_import/perusmaksurekisteri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">Sarake 1</t>
   </si>
@@ -39,6 +39,9 @@
   <si>
     <t xml:space="preserve">123456789A</t>
   </si>
+  <si>
+    <t xml:space="preserve">200000002C</t>
+  </si>
 </sst>
 </file>
 
@@ -52,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -111,9 +115,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -129,17 +137,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.81"/>
   </cols>
@@ -166,6 +174,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
